--- a/DecisionTrees.xlsx
+++ b/DecisionTrees.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ameen\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50B2A88B-A515-4985-9C91-5E3D7F1643B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C69DCE1-D478-434A-91D3-8826884C84F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{A5559EEA-DE18-4DD9-920E-5DD525B5B208}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="2" xr2:uid="{A5559EEA-DE18-4DD9-920E-5DD525B5B208}"/>
   </bookViews>
   <sheets>
     <sheet name="App" sheetId="1" r:id="rId1"/>
@@ -1827,8 +1827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5AC25A4-67F3-4E48-B2EC-F423C9F56374}">
   <dimension ref="A1:T43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -2638,7 +2638,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB8721E-EE72-46AF-A08A-F5A56A2849C8}">
   <dimension ref="B2:K12"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
